--- a/OHC_ensemble/coverage.xlsx
+++ b/OHC_ensemble/coverage.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JohnMatthew/Downloads/Thorne_15_codefigurestats/OHC_ensemble/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B57055-5034-CA4E-9182-203309EA453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669C0160-22D6-2D4B-AC36-3E9EBA20907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46380" yWindow="-4220" windowWidth="28040" windowHeight="17440" xr2:uid="{DE02F902-72F0-CD42-A7B4-E77ACE7F346F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21180" xr2:uid="{DE02F902-72F0-CD42-A7B4-E77ACE7F346F}"/>
   </bookViews>
   <sheets>
     <sheet name="Obs" sheetId="1" r:id="rId1"/>
     <sheet name="Models" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -359,12 +359,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -701,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7506DD-4F10-6A4E-B29B-FF73C8824AF1}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="I11" sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,11 +714,10 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -746,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,8 +763,8 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -786,8 +783,8 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -799,15 +796,15 @@
       <c r="H4">
         <v>2024</v>
       </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -819,14 +816,14 @@
       <c r="H5">
         <v>2025</v>
       </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -839,11 +836,11 @@
       <c r="H6">
         <v>2023</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -856,11 +853,11 @@
       <c r="H7">
         <v>2020</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -873,15 +870,15 @@
       <c r="F8">
         <v>2019</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="E9">
@@ -891,11 +888,11 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10">
@@ -904,15 +901,15 @@
       <c r="D10">
         <v>2023</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="G11">
@@ -922,7 +919,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>85</v>
       </c>
